--- a/data/Iramp-2.xlsx
+++ b/data/Iramp-2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d966331bce661fd/School/4A/460/460_E4_Thermionic_Emission/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tokiy\OneDrive\School\4A\460\460_E4_Thermionic_Emission\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Vset (V)</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Vf (V)</t>
+  </si>
+  <si>
+    <t>If (A)</t>
   </si>
 </sst>
 </file>
@@ -395,15 +398,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE16886-2CBB-41C9-8A5B-E5789B795E9D}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,84 +428,85 @@
       <c r="H1" t="s">
         <v>4</v>
       </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>300</v>
       </c>
       <c r="B2">
-        <v>299.72000000000003</v>
+        <v>299.13</v>
       </c>
       <c r="C2">
-        <v>3.94</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D2">
-        <v>231.15</v>
-      </c>
-      <c r="F2" s="2">
-        <v>299.81</v>
-      </c>
-      <c r="G2">
-        <v>4.0019999999999998</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="H2">
-        <v>5.8570000000000002</v>
+        <v>5.1725000000000003</v>
+      </c>
+      <c r="I2">
+        <v>2.0053999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>250</v>
       </c>
       <c r="B3">
-        <v>251.05</v>
+        <v>249.6</v>
       </c>
       <c r="C3">
-        <v>3.85</v>
+        <v>3.83</v>
       </c>
       <c r="D3">
-        <v>184.04</v>
+        <v>196.6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>200</v>
       </c>
       <c r="B4" s="1">
-        <v>199.8</v>
+        <v>199.2</v>
       </c>
       <c r="C4">
-        <v>3.74</v>
+        <v>3.73</v>
       </c>
       <c r="D4" s="1">
-        <v>134.69999999999999</v>
+        <v>147.69999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>150</v>
       </c>
       <c r="B5">
-        <v>148.25</v>
+        <v>151.19999999999999</v>
       </c>
       <c r="C5">
         <v>3.63</v>
       </c>
       <c r="D5">
-        <v>85.93</v>
+        <v>101.2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>100</v>
       </c>
       <c r="B6">
-        <v>100.24</v>
+        <v>100.2</v>
       </c>
       <c r="C6">
-        <v>3.49</v>
+        <v>3.45</v>
       </c>
       <c r="D6">
-        <v>39.44</v>
+        <v>52.5</v>
       </c>
     </row>
   </sheetData>
